--- a/output/CANVAS_18480735000125.xlsx
+++ b/output/CANVAS_18480735000125.xlsx
@@ -1307,10 +1307,10 @@
         <v>44165</v>
       </c>
       <c r="B84">
-        <v>1.12299264</v>
+        <v>1.1189137</v>
       </c>
       <c r="C84">
-        <v>0.03545481771630232</v>
+        <v>0.03346538167465107</v>
       </c>
     </row>
   </sheetData>

--- a/output/CANVAS_18480735000125.xlsx
+++ b/output/CANVAS_18480735000125.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CANVAS ENDURO II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,931 +383,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41670</v>
       </c>
       <c r="B2">
-        <v>-0.0398387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41698</v>
       </c>
       <c r="B3">
-        <v>-0.005353480000000022</v>
-      </c>
-      <c r="C3">
         <v>0.03591606951873616</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41729</v>
       </c>
       <c r="B4">
-        <v>0.00227021000000005</v>
-      </c>
-      <c r="C4">
         <v>0.007664722940970092</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41759</v>
       </c>
       <c r="B5">
-        <v>0.01898632</v>
-      </c>
-      <c r="C5">
         <v>0.01667824687715691</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41790</v>
       </c>
       <c r="B6">
-        <v>0.05745318999999993</v>
-      </c>
-      <c r="C6">
         <v>0.03775013387814652</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41820</v>
       </c>
       <c r="B7">
-        <v>0.0754691999999999</v>
-      </c>
-      <c r="C7">
         <v>0.01703717022216367</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41851</v>
       </c>
       <c r="B8">
-        <v>0.07878446000000006</v>
-      </c>
-      <c r="C8">
         <v>0.003082617335763871</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41882</v>
       </c>
       <c r="B9">
-        <v>0.08455170999999995</v>
-      </c>
-      <c r="C9">
         <v>0.005346063290529779</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41912</v>
       </c>
       <c r="B10">
-        <v>0.05396755000000009</v>
-      </c>
-      <c r="C10">
         <v>-0.02819981723139775</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41943</v>
       </c>
       <c r="B11">
-        <v>0.03926819000000004</v>
-      </c>
-      <c r="C11">
         <v>-0.0139466912430084</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41973</v>
       </c>
       <c r="B12">
-        <v>0.04782715000000004</v>
-      </c>
-      <c r="C12">
         <v>0.008235564296449782</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42004</v>
       </c>
       <c r="B13">
-        <v>0.04935664000000006</v>
-      </c>
-      <c r="C13">
         <v>0.001459677772235546</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42035</v>
       </c>
       <c r="B14">
-        <v>0.07449496</v>
-      </c>
-      <c r="C14">
         <v>0.02395593551492659</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42063</v>
       </c>
       <c r="B15">
-        <v>0.1115241</v>
-      </c>
-      <c r="C15">
         <v>0.03446190198974963</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42094</v>
       </c>
       <c r="B16">
-        <v>0.1230283599999999</v>
-      </c>
-      <c r="C16">
         <v>0.01034998701332701</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42124</v>
       </c>
       <c r="B17">
-        <v>0.1492958900000001</v>
-      </c>
-      <c r="C17">
         <v>0.02338990798059637</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42155</v>
       </c>
       <c r="B18">
-        <v>0.17040454</v>
-      </c>
-      <c r="C18">
         <v>0.01836659313207845</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42185</v>
       </c>
       <c r="B19">
-        <v>0.1882916100000001</v>
-      </c>
-      <c r="C19">
         <v>0.01528280982232011</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42216</v>
       </c>
       <c r="B20">
-        <v>0.2032485799999999</v>
-      </c>
-      <c r="C20">
         <v>0.01258695245689712</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42247</v>
       </c>
       <c r="B21">
-        <v>0.2062932900000001</v>
-      </c>
-      <c r="C21">
         <v>0.002530408138940121</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42277</v>
       </c>
       <c r="B22">
-        <v>0.20530563</v>
-      </c>
-      <c r="C22">
         <v>-0.0008187561086409056</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42308</v>
       </c>
       <c r="B23">
-        <v>0.22137183</v>
-      </c>
-      <c r="C23">
         <v>0.01332956521575368</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42338</v>
       </c>
       <c r="B24">
-        <v>0.2448361299999999</v>
-      </c>
-      <c r="C24">
         <v>0.019211430478137</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42369</v>
       </c>
       <c r="B25">
-        <v>0.2617031599999999</v>
-      </c>
-      <c r="C25">
         <v>0.01354959869296213</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42400</v>
       </c>
       <c r="B26">
-        <v>0.33857384</v>
-      </c>
-      <c r="C26">
         <v>0.06092612148169629</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42429</v>
       </c>
       <c r="B27">
-        <v>0.36365403</v>
-      </c>
-      <c r="C27">
         <v>0.01873650093146884</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42460</v>
       </c>
       <c r="B28">
-        <v>0.35712583</v>
-      </c>
-      <c r="C28">
         <v>-0.004787284645798362</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42490</v>
       </c>
       <c r="B29">
-        <v>0.40006802</v>
-      </c>
-      <c r="C29">
         <v>0.03164201067486871</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42521</v>
       </c>
       <c r="B30">
-        <v>0.39738915</v>
-      </c>
-      <c r="C30">
         <v>-0.001913385608222073</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42551</v>
       </c>
       <c r="B31">
-        <v>0.42319628</v>
-      </c>
-      <c r="C31">
         <v>0.01846810532341681</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42582</v>
       </c>
       <c r="B32">
-        <v>0.4465077</v>
-      </c>
-      <c r="C32">
         <v>0.01637962403892734</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42613</v>
       </c>
       <c r="B33">
-        <v>0.4607314300000001</v>
-      </c>
-      <c r="C33">
         <v>0.009833151942433505</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42643</v>
       </c>
       <c r="B34">
-        <v>0.5008749299999999</v>
-      </c>
-      <c r="C34">
         <v>0.02748178013805025</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42674</v>
       </c>
       <c r="B35">
-        <v>0.5107022699999999</v>
-      </c>
-      <c r="C35">
         <v>0.006547740790100232</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42704</v>
       </c>
       <c r="B36">
-        <v>0.4913241699999999</v>
-      </c>
-      <c r="C36">
         <v>-0.01282721313445834</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42735</v>
       </c>
       <c r="B37">
-        <v>0.5184542000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01819190659264924</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42766</v>
       </c>
       <c r="B38">
-        <v>0.5422991399999999</v>
-      </c>
-      <c r="C38">
         <v>0.01570343050188794</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42794</v>
       </c>
       <c r="B39">
-        <v>0.5882968500000001</v>
-      </c>
-      <c r="C39">
         <v>0.02982411699976706</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42825</v>
       </c>
       <c r="B40">
-        <v>0.6201965700000001</v>
-      </c>
-      <c r="C40">
         <v>0.0200842304761859</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42855</v>
       </c>
       <c r="B41">
-        <v>0.63961727</v>
-      </c>
-      <c r="C41">
         <v>0.01198663196774952</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42886</v>
       </c>
       <c r="B42">
-        <v>0.5638118299999999</v>
-      </c>
-      <c r="C42">
         <v>-0.04623361889814692</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42916</v>
       </c>
       <c r="B43">
-        <v>0.5859207200000001</v>
-      </c>
-      <c r="C43">
         <v>0.01413781989358665</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42947</v>
       </c>
       <c r="B44">
-        <v>0.63373977</v>
-      </c>
-      <c r="C44">
         <v>0.03015223232596398</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42978</v>
       </c>
       <c r="B45">
-        <v>0.6700088099999999</v>
-      </c>
-      <c r="C45">
         <v>0.02220001047045561</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43008</v>
       </c>
       <c r="B46">
-        <v>0.70429114</v>
-      </c>
-      <c r="C46">
         <v>0.02052823302171691</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43039</v>
       </c>
       <c r="B47">
-        <v>0.70026868</v>
-      </c>
-      <c r="C47">
         <v>-0.002360195336109094</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43069</v>
       </c>
       <c r="B48">
-        <v>0.6984770499999999</v>
-      </c>
-      <c r="C48">
         <v>-0.001053733460525841</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43100</v>
       </c>
       <c r="B49">
-        <v>0.72669684</v>
-      </c>
-      <c r="C49">
         <v>0.01661476085296543</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43131</v>
       </c>
       <c r="B50">
-        <v>0.77312454</v>
-      </c>
-      <c r="C50">
         <v>0.02688815947563783</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43159</v>
       </c>
       <c r="B51">
-        <v>0.79086126</v>
-      </c>
-      <c r="C51">
         <v>0.01000308754398049</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43190</v>
       </c>
       <c r="B52">
-        <v>0.8022913</v>
-      </c>
-      <c r="C52">
         <v>0.006382426296942745</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43220</v>
       </c>
       <c r="B53">
-        <v>0.80573172</v>
-      </c>
-      <c r="C53">
         <v>0.00190891450233388</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43251</v>
       </c>
       <c r="B54">
-        <v>0.75559233</v>
-      </c>
-      <c r="C54">
         <v>-0.02776679915663216</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43281</v>
       </c>
       <c r="B55">
-        <v>0.75726893</v>
-      </c>
-      <c r="C55">
         <v>0.0009550053115121582</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43312</v>
       </c>
       <c r="B56">
-        <v>0.78707003</v>
-      </c>
-      <c r="C56">
         <v>0.01695875883949083</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43343</v>
       </c>
       <c r="B57">
-        <v>0.7593645</v>
-      </c>
-      <c r="C57">
         <v>-0.01550332641413055</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43373</v>
       </c>
       <c r="B58">
-        <v>0.76517072</v>
-      </c>
-      <c r="C58">
         <v>0.003300180263953179</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43404</v>
       </c>
       <c r="B59">
-        <v>0.8402299900000001</v>
-      </c>
-      <c r="C59">
         <v>0.04252238559678823</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43434</v>
       </c>
       <c r="B60">
-        <v>0.8414931400000001</v>
-      </c>
-      <c r="C60">
         <v>0.0006864087678519759</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43465</v>
       </c>
       <c r="B61">
-        <v>0.85033151</v>
-      </c>
-      <c r="C61">
         <v>0.004799567159940565</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43496</v>
       </c>
       <c r="B62">
-        <v>0.9527847199999999</v>
-      </c>
-      <c r="C62">
         <v>0.05537019147449951</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43524</v>
       </c>
       <c r="B63">
-        <v>0.9448619599999999</v>
-      </c>
-      <c r="C63">
         <v>-0.004057159972042368</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43555</v>
       </c>
       <c r="B64">
-        <v>0.91823812</v>
-      </c>
-      <c r="C64">
         <v>-0.01368932116909716</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43585</v>
       </c>
       <c r="B65">
-        <v>0.94157494</v>
-      </c>
-      <c r="C65">
         <v>0.01216575760677707</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43616</v>
       </c>
       <c r="B66">
-        <v>0.9653647700000001</v>
-      </c>
-      <c r="C66">
         <v>0.01225285180081692</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43646</v>
       </c>
       <c r="B67">
-        <v>1.02295893</v>
-      </c>
-      <c r="C67">
         <v>0.02930456517748614</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43677</v>
       </c>
       <c r="B68">
-        <v>1.04775694</v>
-      </c>
-      <c r="C68">
         <v>0.01225828642996718</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43708</v>
       </c>
       <c r="B69">
-        <v>1.02994121</v>
-      </c>
-      <c r="C69">
         <v>-0.008700119458513567</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43738</v>
       </c>
       <c r="B70">
-        <v>1.03788631</v>
-      </c>
-      <c r="C70">
         <v>0.003913955715003192</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43769</v>
       </c>
       <c r="B71">
-        <v>1.07851191</v>
-      </c>
-      <c r="C71">
         <v>0.0199351650779771</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43799</v>
       </c>
       <c r="B72">
-        <v>1.05693779</v>
-      </c>
-      <c r="C72">
         <v>-0.0103795989314297</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43830</v>
       </c>
       <c r="B73">
-        <v>1.10948833</v>
-      </c>
-      <c r="C73">
         <v>0.02554794814674488</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43861</v>
       </c>
       <c r="B74">
-        <v>1.07582519</v>
-      </c>
-      <c r="C74">
         <v>-0.01595796455531939</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43890</v>
       </c>
       <c r="B75">
-        <v>1.01984795</v>
-      </c>
-      <c r="C75">
         <v>-0.02696625913861284</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43921</v>
       </c>
       <c r="B76">
-        <v>0.93923997</v>
-      </c>
-      <c r="C76">
         <v>-0.03990794455592561</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43951</v>
       </c>
       <c r="B77">
-        <v>0.98226681</v>
-      </c>
-      <c r="C77">
         <v>0.02218747584910807</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43982</v>
       </c>
       <c r="B78">
-        <v>1.05798536</v>
-      </c>
-      <c r="C78">
         <v>0.03819796084867089</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>44012</v>
       </c>
       <c r="B79">
-        <v>1.10128881</v>
-      </c>
-      <c r="C79">
         <v>0.02104167057825901</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>44043</v>
       </c>
       <c r="B80">
-        <v>1.15904605</v>
-      </c>
-      <c r="C80">
         <v>0.02748657858221804</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>44074</v>
       </c>
       <c r="B81">
-        <v>1.12566225</v>
-      </c>
-      <c r="C81">
         <v>-0.0154622917839109</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44104</v>
       </c>
       <c r="B82">
-        <v>1.07544218</v>
-      </c>
-      <c r="C82">
         <v>-0.02362561126538332</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44135</v>
       </c>
       <c r="B83">
-        <v>1.05029964</v>
-      </c>
-      <c r="C83">
         <v>-0.01211430520314472</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44165</v>
       </c>
       <c r="B84">
-        <v>1.1189137</v>
-      </c>
-      <c r="C84">
-        <v>0.03346538167465107</v>
+        <v>0.02662637642564292</v>
       </c>
     </row>
   </sheetData>
